--- a/frontend/public/output/Excel/results_total_distance_full.xlsx
+++ b/frontend/public/output/Excel/results_total_distance_full.xlsx
@@ -526,11 +526,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>rc05</t>
+          <t>c05</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8375880718231201</v>
+        <v>0.362138032913208</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
@@ -539,39 +539,39 @@
         <v>3000</v>
       </c>
       <c r="F2" t="n">
-        <v>5189.79</v>
+        <v>3956.43</v>
       </c>
       <c r="G2" t="n">
-        <v>5189.79</v>
+        <v>3956.43</v>
       </c>
       <c r="H2" t="n">
-        <v>2676.32</v>
+        <v>3438.9784</v>
       </c>
       <c r="I2" t="n">
-        <v>619.21</v>
+        <v>429.76</v>
       </c>
       <c r="J2" t="n">
-        <v>416.2567999999999</v>
+        <v>3423.1368</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>181.2311999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[{'cs5': (0, 0, 0), '42B': (649, 120, 729), '31': (1372, 120, 1448), '32': (1322, 180, 1378), '115': (1459, 180, 1531)}, {'cs5': (0, 0, 0), '75': (424, 120, 487)}]</t>
+          <t>[{'cs5': (0, 0, 0), '35': (1649, 120, 1731), 'cs7': (0, 181.23119999999994, 0), '115': (1459, 180, 1531), '2': (257, 120, 303), '32': (1322, 180, 1378)}, {'cs5': (0, 0, 0), '42B': (649, 120, 729)}]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[{"Route": "[cs5, 42B, 31, 32, 115, cs5, ]", "Route IsFeasible": true, "Route Distance": 2995.95, "Route Energy": 324.22, "Route Time": 2043.4192, "Route Tardiness": 416.2567999999999, "Route Waiting Time": 1203.7432, "Route Charging Time": 0, "Data": [{"cs5 -&gt; 42B": {"Arrival Time": 28.911199999999997, "Waiting Time": 620.0888, "Tardiness": 0, "Distance": 361.39, "Remaining Tank": 2638.61, "TW": "[649 - 120 - 729]"}}, {"42B -&gt; 31": {"Arrival Time": 788.3456, "Waiting Time": 583.6544, "Tardiness": 0, "Distance": 241.82, "Remaining Tank": 2396.79, "TW": "[1372 - 120 - 1448]"}}, {"31 -&gt; 32": {"Arrival Time": 1555.1696, "Waiting Time": 0, "Tardiness": 177.16959999999995, "Distance": 789.62, "Remaining Tank": 1607.17, "TW": "[1322 - 180 - 1378]"}}, {"32 -&gt; 115": {"Arrival Time": 1770.0872, "Waiting Time": 0, "Tardiness": 239.08719999999994, "Distance": 436.47, "Remaining Tank": 1170.7, "TW": "[1459 - 180 - 1531]"}}, {"115 -&gt; cs5": {"Arrival Time": 2043.4192, "Waiting Time": 0, "Tardiness": 0, "Distance": 1166.65, "Remaining Tank": 4.0499999999999545, "TW": "[0 - 0 - 0]"}}]}, {"Route": "[cs5, 75, cs5, ]", "Route IsFeasible": true, "Route Distance": 2193.84, "Route Energy": 294.99, "Route Time": 632.9008, "Route Tardiness": 0, "Route Waiting Time": 337.3936, "Route Charging Time": 0, "Data": [{"cs5 -&gt; 75": {"Arrival Time": 86.6064, "Waiting Time": 337.3936, "Tardiness": 0, "Distance": 1082.58, "Remaining Tank": 1917.42, "TW": "[424 - 120 - 487]"}}, {"75 -&gt; cs5": {"Arrival Time": 632.9008, "Waiting Time": 0, "Tardiness": 0, "Distance": 1111.26, "Remaining Tank": 806.1600000000001, "TW": "[0 - 0 - 0]"}}]}]</t>
+          <t>[{"Route": "[cs5, 35, cs7, 115, 2, 32, cs5, ]", "Route IsFeasible": true, "Route Distance": 3158.6800000000003, "Route Energy": 338.68, "Route Time": 2635.0696000000003, "Route Tardiness": 3423.1368, "Route Waiting Time": 1601.144, "Route Charging Time": 181.23119999999994, "Data": [{"cs5 -&gt; 35": {"Arrival Time": 47.856, "Waiting Time": 1601.144, "Tardiness": 0, "Distance": 598.2, "Remaining Tank": 2401.8, "TW": "[1649 - 120 - 1731]"}}, {"35 -&gt; cs7": {"Arrival Time": 1801.6912, "Waiting Time": 0, "Tardiness": 0, "Distance": 408.64, "Remaining Tank": 1993.1600000000003, "TW": "[0 - 181.23119999999994 - 0]"}}, {"cs7 -&gt; 115": {"Arrival Time": 2012.1624, "Waiting Time": 0, "Tardiness": 481.16239999999993, "Distance": 365.5, "Remaining Tank": 2634.5, "TW": "[1459 - 180 - 1531]"}}, {"115 -&gt; 2": {"Arrival Time": 2221.8776000000003, "Waiting Time": 0, "Tardiness": 1918.8776000000003, "Distance": 371.44, "Remaining Tank": 2263.06, "TW": "[257 - 120 - 303]"}}, {"2 -&gt; 32": {"Arrival Time": 2401.0968000000003, "Waiting Time": 0, "Tardiness": 1023.0968000000003, "Distance": 740.24, "Remaining Tank": 1522.82, "TW": "[1322 - 180 - 1378]"}}, {"32 -&gt; cs5": {"Arrival Time": 2635.0696000000003, "Waiting Time": 0, "Tardiness": 0, "Distance": 674.66, "Remaining Tank": 848.16, "TW": "[0 - 0 - 0]"}}]}, {"Route": "[cs5, 42B, cs5, ]", "Route IsFeasible": true, "Route Distance": 797.75, "Route Energy": 91.08, "Route Time": 803.9088, "Route Tardiness": 0, "Route Waiting Time": 620.0888, "Route Charging Time": 0, "Data": [{"cs5 -&gt; 42B": {"Arrival Time": 28.911199999999997, "Waiting Time": 620.0888, "Tardiness": 0, "Distance": 361.39, "Remaining Tank": 2638.61, "TW": "[649 - 120 - 729]"}}, {"42B -&gt; cs5": {"Arrival Time": 803.9088, "Waiting Time": 0, "Tardiness": 0, "Distance": 436.36, "Remaining Tank": 2202.25, "TW": "[0 - 0 - 0]"}}]}]</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[[cs5, 42B, 31, 32, 115, cs5, ], [cs5, 75, cs5, ]]</t>
+          <t>[[cs5, 35, cs7, 115, 2, 32, cs5, ], [cs5, 42B, cs5, ]]</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>{"Customer Insertion": {"Greedy Customer Insertion Operator": 0.09029060472689142, "Regret 2 Customer Insertion Operator": 0.9097093952731087}, "Customer Removal": {"Related Customer Removal Operator": 0.00806948666876374, "Remove Random Customer Operator": 0.1393999545724571, "Least Time Window Customer Removal Operator": 0.05126849425166994, "Worst Distance Customer Removal Operator": 0.8012620645071092}, "Route Removal": {"Random Route Removal Operator": 0.2565178190597724, "Greedy Route Removal Operator": 0.7434821809402277}, "Local Search": {"Intra Relocate": 0.03419964167669148, "Intra Exchange": 0.04193419816868918, "Intra Or Opt": 0.00017227910351811848, "Intra 2 Opt": 0.00048651618833516874, "Inter Relocate": 0.9214286692584932, "Inter Exchange": 0.0010708007679168716, "Inter Cross Exchange": 0.00017227910351811848, "Inter 2 Opt Star": 0.0005356157328378329}}</t>
+          <t>{"Customer Insertion": {"Greedy Customer Insertion Operator": 0.7433662785718006, "Regret 2 Customer Insertion Operator": 0.25663372142819946}, "Customer Removal": {"Related Customer Removal Operator": 0.027751205181591833, "Remove Random Customer Operator": 0.09616778696215655, "Least Time Window Customer Removal Operator": 0.28201264682157595, "Worst Distance Customer Removal Operator": 0.5940683610346758}, "Route Removal": {"Random Route Removal Operator": 0.8937033763405509, "Greedy Route Removal Operator": 0.10629662365944921}, "Local Search": {"Intra Relocate": 0.02519432878763533, "Intra Exchange": 0.168375056449762, "Intra Or Opt": 0.05387112634428796, "Intra 2 Opt": 0.056366891075433995, "Inter Relocate": 0.11872367214543098, "Inter Exchange": 0.5716363978773134, "Inter Cross Exchange": 0.005650394595101953, "Inter 2 Opt Star": 0.0001821327250343165}}</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
